--- a/Work/Modern Ways/Open Subtitles/Lesson Deployment/ReDe/Turkish_French_28_Word_Step_28_Result1.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Lesson Deployment/ReDe/Turkish_French_28_Word_Step_28_Result1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t>word</t>
   </si>
@@ -451,12 +451,12 @@
     <t>bana var</t>
   </si>
   <si>
+    <t>onu var</t>
+  </si>
+  <si>
     <t>var da</t>
   </si>
   <si>
-    <t>onu var</t>
-  </si>
-  <si>
     <t>bana bunu</t>
   </si>
   <si>
@@ -484,835 +484,739 @@
     <t>beni seni</t>
   </si>
   <si>
-    <t>çok komik</t>
-  </si>
-  <si>
-    <t>çok basit</t>
-  </si>
-  <si>
-    <t>beni duydun</t>
-  </si>
-  <si>
-    <t>çok fazla</t>
-  </si>
-  <si>
-    <t>evet duydum</t>
-  </si>
-  <si>
-    <t>çok komiksin</t>
-  </si>
-  <si>
-    <t>polis mi</t>
-  </si>
-  <si>
-    <t>evet komutanım</t>
-  </si>
-  <si>
-    <t>ben doktorum</t>
-  </si>
-  <si>
-    <t>komik değil</t>
-  </si>
-  <si>
-    <t>fazla değil</t>
-  </si>
-  <si>
-    <t>daha fazla</t>
-  </si>
-  <si>
-    <t>seni duydum</t>
-  </si>
-  <si>
-    <t>problem değil</t>
-  </si>
-  <si>
-    <t>evet patron</t>
-  </si>
-  <si>
-    <t>onu duydun</t>
-  </si>
-  <si>
-    <t>çok riskli</t>
-  </si>
-  <si>
-    <t>çok şeker</t>
-  </si>
-  <si>
-    <t>bir numara</t>
-  </si>
-  <si>
-    <t>çok komikti</t>
-  </si>
-  <si>
-    <t>evet doktor</t>
-  </si>
-  <si>
-    <t>evet madam</t>
-  </si>
-  <si>
-    <t>bu komik</t>
-  </si>
-  <si>
-    <t>çok romantik</t>
-  </si>
-  <si>
-    <t>ne duydun</t>
-  </si>
-  <si>
-    <t>evet şef</t>
-  </si>
-  <si>
-    <t>randevum var</t>
-  </si>
-  <si>
-    <t>bebek mi</t>
-  </si>
-  <si>
-    <t>bunu duydum</t>
-  </si>
-  <si>
-    <t>ne planı</t>
-  </si>
-  <si>
-    <t>bu normal</t>
-  </si>
-  <si>
-    <t>komik mi</t>
-  </si>
-  <si>
-    <t>planın ne</t>
-  </si>
-  <si>
-    <t>ve motor</t>
-  </si>
-  <si>
-    <t>hayır komutanım</t>
-  </si>
-  <si>
-    <t>parti mi</t>
-  </si>
-  <si>
-    <t>problem yok</t>
-  </si>
-  <si>
-    <t>sinyal yok</t>
-  </si>
-  <si>
-    <t>bir şartla</t>
-  </si>
-  <si>
-    <t>ne komik</t>
-  </si>
-  <si>
-    <t>evet bazen</t>
-  </si>
-  <si>
-    <t>evet bebek</t>
-  </si>
-  <si>
-    <t>plan ne</t>
-  </si>
-  <si>
-    <t>onu duydum</t>
-  </si>
-  <si>
-    <t>bir polis</t>
-  </si>
-  <si>
-    <t>bir milyon</t>
-  </si>
-  <si>
-    <t>plan mı</t>
-  </si>
-  <si>
-    <t>bomba mı</t>
-  </si>
-  <si>
-    <t>ne mesajı</t>
-  </si>
-  <si>
-    <t>dans mı</t>
-  </si>
-  <si>
-    <t>normal mi</t>
-  </si>
-  <si>
-    <t>çok şık</t>
-  </si>
-  <si>
-    <t>şans mı</t>
-  </si>
-  <si>
-    <t>bir bebek</t>
-  </si>
-  <si>
-    <t>ne partisi</t>
-  </si>
-  <si>
-    <t>problem ne</t>
-  </si>
-  <si>
-    <t>şifre ne</t>
-  </si>
-  <si>
-    <t>bu komikti</t>
-  </si>
-  <si>
-    <t>evet alo</t>
-  </si>
-  <si>
-    <t>hayır doktor</t>
-  </si>
-  <si>
-    <t>evet general</t>
-  </si>
-  <si>
-    <t>gene mi</t>
-  </si>
-  <si>
-    <t>ne şans</t>
-  </si>
-  <si>
-    <t>şanslı mı</t>
-  </si>
-  <si>
-    <t>plan bu</t>
-  </si>
-  <si>
-    <t>ben avukatım</t>
-  </si>
-  <si>
-    <t>telefon yok</t>
-  </si>
-  <si>
-    <t>çok enteresan</t>
-  </si>
-  <si>
-    <t>polisler mi</t>
-  </si>
-  <si>
-    <t>bir dolar</t>
-  </si>
-  <si>
-    <t>avukat mı</t>
-  </si>
-  <si>
-    <t>sürpriz mi</t>
-  </si>
-  <si>
-    <t>şart değil</t>
-  </si>
-  <si>
-    <t>kural bu</t>
-  </si>
-  <si>
-    <t>film mi</t>
-  </si>
-  <si>
-    <t>hayır madam</t>
-  </si>
-  <si>
-    <t>bu süper</t>
-  </si>
-  <si>
-    <t>kural bir</t>
-  </si>
-  <si>
-    <t>şeker mi</t>
-  </si>
-  <si>
-    <t>bomba var</t>
-  </si>
-  <si>
-    <t>polis yok</t>
-  </si>
-  <si>
-    <t>dolar mı</t>
-  </si>
-  <si>
-    <t>şans için</t>
-  </si>
-  <si>
-    <t>alerjim var</t>
-  </si>
-  <si>
-    <t>telefonun var</t>
-  </si>
-  <si>
-    <t>duydun beni</t>
-  </si>
-  <si>
-    <t>mesaj mı</t>
-  </si>
-  <si>
-    <t>ben duydum</t>
-  </si>
-  <si>
-    <t>ben profesyonelim</t>
-  </si>
-  <si>
-    <t>panik yok</t>
-  </si>
-  <si>
-    <t>seni manyak</t>
-  </si>
-  <si>
-    <t>bir doktor</t>
-  </si>
-  <si>
-    <t>numara mı</t>
-  </si>
-  <si>
-    <t>sigara mı</t>
-  </si>
-  <si>
-    <t>patron o</t>
-  </si>
-  <si>
-    <t>kural yok</t>
-  </si>
-  <si>
-    <t>bir harita</t>
-  </si>
-  <si>
-    <t>elektrik yok</t>
-  </si>
-  <si>
-    <t>mesajınız var</t>
-  </si>
-  <si>
-    <t>normal değil</t>
-  </si>
-  <si>
-    <t>hayır patron</t>
-  </si>
-  <si>
-    <t>bomba gibi</t>
-  </si>
-  <si>
-    <t>planım bu</t>
-  </si>
-  <si>
-    <t>planımız bu</t>
-  </si>
-  <si>
-    <t>numara yok</t>
-  </si>
-  <si>
-    <t>bir avukat</t>
-  </si>
-  <si>
-    <t>ben vejetaryenim</t>
-  </si>
-  <si>
-    <t>kamera yok</t>
-  </si>
-  <si>
-    <t>pardon ben</t>
-  </si>
-  <si>
-    <t>duydum seni</t>
-  </si>
-  <si>
-    <t>şansın yok</t>
-  </si>
-  <si>
-    <t>ama bazen</t>
-  </si>
-  <si>
-    <t>telefon var</t>
-  </si>
-  <si>
-    <t>bu müzik</t>
-  </si>
-  <si>
-    <t>sen defol</t>
-  </si>
-  <si>
-    <t>bebek gibi</t>
-  </si>
-  <si>
-    <t>polis değil</t>
-  </si>
-  <si>
-    <t>bebek için</t>
-  </si>
-  <si>
-    <t>hayır şef</t>
-  </si>
-  <si>
-    <t>hayır ray</t>
-  </si>
-  <si>
-    <t>duydun onu</t>
-  </si>
-  <si>
-    <t>ben kanserim</t>
-  </si>
-  <si>
-    <t>sen yat</t>
-  </si>
-  <si>
-    <t>hayır profesör</t>
-  </si>
-  <si>
-    <t>planım var</t>
-  </si>
-  <si>
-    <t>doktorum ben</t>
-  </si>
-  <si>
-    <t>ben ray</t>
-  </si>
-  <si>
-    <t>o polis</t>
-  </si>
-  <si>
-    <t>beni duydu</t>
-  </si>
-  <si>
-    <t>randevumuz var</t>
-  </si>
-  <si>
-    <t>hayır ekselansları</t>
-  </si>
-  <si>
-    <t>randevu değil</t>
-  </si>
-  <si>
-    <t>hayır mösyö</t>
-  </si>
-  <si>
-    <t>temas var</t>
-  </si>
-  <si>
-    <t>parti için</t>
-  </si>
-  <si>
-    <t>hayır general</t>
-  </si>
-  <si>
-    <t>problem bu</t>
-  </si>
-  <si>
-    <t>ben müzisyenim</t>
-  </si>
-  <si>
-    <t>sen komiksin</t>
-  </si>
-  <si>
-    <t>okul için</t>
-  </si>
-  <si>
-    <t>kanser değil</t>
-  </si>
-  <si>
-    <t>duydum onu</t>
-  </si>
-  <si>
-    <t>pardon ama</t>
-  </si>
-  <si>
-    <t>bombası var</t>
-  </si>
-  <si>
-    <t>ama doktor</t>
-  </si>
-  <si>
-    <t>ve bazen</t>
-  </si>
-  <si>
-    <t>bebekler gibi</t>
-  </si>
-  <si>
-    <t>ama şef</t>
-  </si>
-  <si>
-    <t>ama patron</t>
-  </si>
-  <si>
-    <t>seni çakal</t>
-  </si>
-  <si>
-    <t>komik ama</t>
-  </si>
-  <si>
-    <t>o doktor</t>
-  </si>
-  <si>
-    <t>kanser gibi</t>
-  </si>
-  <si>
-    <t>seni şanslı</t>
-  </si>
-  <si>
-    <t>komik şey</t>
-  </si>
-  <si>
-    <t>daha basit</t>
-  </si>
-  <si>
-    <t>makine gibi</t>
-  </si>
-  <si>
-    <t>şans değil</t>
-  </si>
-  <si>
-    <t>seni duydu</t>
-  </si>
-  <si>
-    <t>duydum bunu</t>
-  </si>
-  <si>
-    <t>şeker şey</t>
-  </si>
-  <si>
-    <t>turp gibi</t>
-  </si>
-  <si>
-    <t>gene de</t>
-  </si>
-  <si>
-    <t>yatır onu</t>
-  </si>
-  <si>
-    <t>elektrik gibi</t>
-  </si>
-  <si>
-    <t>bomba değil</t>
-  </si>
-  <si>
-    <t>şeker gibi</t>
-  </si>
-  <si>
-    <t>ve bebek</t>
-  </si>
-  <si>
-    <t>ve kamera</t>
-  </si>
-  <si>
-    <t>ve müzik</t>
-  </si>
-  <si>
-    <t>seni embesil</t>
-  </si>
-  <si>
-    <t>o fransız</t>
-  </si>
-  <si>
-    <t>ama profesör</t>
-  </si>
-  <si>
-    <t>ama komik</t>
-  </si>
-  <si>
-    <t>ve perde</t>
-  </si>
-  <si>
-    <t>o normal</t>
-  </si>
-  <si>
-    <t>bazen de</t>
-  </si>
-  <si>
-    <t>ve komik</t>
-  </si>
-  <si>
-    <t>kurt gibi</t>
-  </si>
-  <si>
-    <t>şanslı seni</t>
-  </si>
-  <si>
-    <t>o bebek</t>
-  </si>
-  <si>
-    <t>o kanser</t>
-  </si>
-  <si>
-    <t>ve sahne</t>
-  </si>
-  <si>
-    <t>film gibi</t>
-  </si>
-  <si>
-    <t>grup için</t>
-  </si>
-  <si>
-    <t>televizyon için</t>
-  </si>
-  <si>
-    <t>o kuzenim</t>
-  </si>
-  <si>
-    <t>daha bebek</t>
-  </si>
-  <si>
-    <t>ve şeker</t>
-  </si>
-  <si>
-    <t>pardon da</t>
-  </si>
-  <si>
-    <t>ama ekselansları</t>
-  </si>
-  <si>
-    <t>doktor o</t>
-  </si>
-  <si>
-    <t>o profesyonel</t>
-  </si>
-  <si>
-    <t>üniversite için</t>
-  </si>
-  <si>
-    <t>ve telefon</t>
-  </si>
-  <si>
-    <t>ama duydum</t>
-  </si>
-  <si>
-    <t>taksi için</t>
-  </si>
-  <si>
-    <t>yat sen</t>
-  </si>
-  <si>
-    <t>koleksiyonun için</t>
-  </si>
-  <si>
-    <t>dans için</t>
-  </si>
-  <si>
-    <t>senatoya da</t>
-  </si>
-  <si>
-    <t>seni şarlatan</t>
-  </si>
-  <si>
-    <t>gene sen</t>
-  </si>
-  <si>
-    <t>şey pardon</t>
-  </si>
-  <si>
-    <t>seni amatör</t>
-  </si>
-  <si>
-    <t>bebek de</t>
-  </si>
-  <si>
-    <t>sen bekarsın</t>
-  </si>
-  <si>
-    <t>şey general</t>
-  </si>
-  <si>
-    <t>pantolonunu da</t>
-  </si>
-  <si>
-    <t>telefon bana</t>
-  </si>
-  <si>
-    <t>prensesin de</t>
-  </si>
-  <si>
-    <t>bunu basın</t>
-  </si>
-  <si>
-    <t>daha enerjik</t>
-  </si>
-  <si>
-    <t>telefonunu da</t>
-  </si>
-  <si>
-    <t>şey bazen</t>
-  </si>
-  <si>
-    <t>daha serin</t>
-  </si>
-  <si>
-    <t>ofisinde de</t>
-  </si>
-  <si>
-    <t>şey doktor</t>
-  </si>
-  <si>
-    <t>şey komutanım</t>
-  </si>
-  <si>
-    <t>beni otobüse</t>
-  </si>
-  <si>
-    <t>çarp bana</t>
-  </si>
-  <si>
-    <t>pardon sen</t>
-  </si>
-  <si>
-    <t>anormal şey</t>
-  </si>
-  <si>
-    <t>komik de</t>
-  </si>
-  <si>
-    <t>sigara da</t>
-  </si>
-  <si>
-    <t>tipik sen</t>
-  </si>
-  <si>
-    <t>sekreteri de</t>
-  </si>
-  <si>
-    <t>bastır onu</t>
-  </si>
-  <si>
-    <t>sen boksun</t>
-  </si>
-  <si>
-    <t>polisler de</t>
-  </si>
-  <si>
-    <t>telefonum da</t>
-  </si>
-  <si>
-    <t>komiksin de</t>
-  </si>
-  <si>
-    <t>şey patron</t>
-  </si>
-  <si>
-    <t>alo de</t>
-  </si>
-  <si>
-    <t>sen doktor</t>
-  </si>
-  <si>
-    <t>atmosfere kadar</t>
-  </si>
-  <si>
-    <t>şanslı şey</t>
-  </si>
-  <si>
-    <t>duydu beni</t>
-  </si>
-  <si>
-    <t>pantolon da</t>
-  </si>
-  <si>
-    <t>onu yatır</t>
-  </si>
-  <si>
-    <t>bunu bastır</t>
-  </si>
-  <si>
-    <t>onu kur</t>
-  </si>
-  <si>
-    <t>daha romantik</t>
-  </si>
-  <si>
-    <t>telefon da</t>
-  </si>
-  <si>
-    <t>bunu duydun</t>
-  </si>
-  <si>
-    <t>telefonu da</t>
-  </si>
-  <si>
-    <t>daha şampanya</t>
-  </si>
-  <si>
-    <t>kanal da</t>
-  </si>
-  <si>
-    <t>vay bana</t>
-  </si>
-  <si>
-    <t>yatır beni</t>
-  </si>
-  <si>
-    <t>daha pratik</t>
-  </si>
-  <si>
-    <t>onu duydu</t>
-  </si>
-  <si>
-    <t>genelde bana</t>
-  </si>
-  <si>
-    <t>bebek daha</t>
-  </si>
-  <si>
-    <t>komutanım bunu</t>
-  </si>
-  <si>
-    <t>paketle onu</t>
-  </si>
-  <si>
-    <t>daha bebekler</t>
-  </si>
-  <si>
-    <t>beni yatır</t>
-  </si>
-  <si>
-    <t>bana telefonunu</t>
-  </si>
-  <si>
-    <t>otobüse kadar</t>
-  </si>
-  <si>
-    <t>beni duyar</t>
-  </si>
-  <si>
-    <t>bravo bana</t>
-  </si>
-  <si>
-    <t>beni duyan</t>
-  </si>
-  <si>
-    <t>şeker bana</t>
-  </si>
-  <si>
-    <t>basın bunu</t>
-  </si>
-  <si>
-    <t>asistanım beni</t>
-  </si>
-  <si>
-    <t>santral bana</t>
-  </si>
-  <si>
-    <t>direkt bana</t>
-  </si>
-  <si>
-    <t>bazen bana</t>
-  </si>
-  <si>
-    <t>bastır bunu</t>
-  </si>
-  <si>
-    <t>marta kadar</t>
-  </si>
-  <si>
-    <t>finale kadar</t>
-  </si>
-  <si>
-    <t>karavan kadar</t>
-  </si>
-  <si>
-    <t>piramitler kadar</t>
-  </si>
-  <si>
-    <t>depoya kadar</t>
-  </si>
-  <si>
-    <t>almanyaya kadar</t>
-  </si>
-  <si>
-    <t>avokado kadar</t>
+    <t>evet ekselansları</t>
+  </si>
+  <si>
+    <t>ne sürpriz</t>
+  </si>
+  <si>
+    <t>pardon ne</t>
+  </si>
+  <si>
+    <t>çok normal</t>
+  </si>
+  <si>
+    <t>ne romantik</t>
+  </si>
+  <si>
+    <t>ne listesi</t>
+  </si>
+  <si>
+    <t>çok pardon</t>
+  </si>
+  <si>
+    <t>evet pardon</t>
+  </si>
+  <si>
+    <t>çok şanslı</t>
+  </si>
+  <si>
+    <t>kanser mi</t>
+  </si>
+  <si>
+    <t>fare mi</t>
+  </si>
+  <si>
+    <t>müzik mi</t>
+  </si>
+  <si>
+    <t>prenses mi</t>
+  </si>
+  <si>
+    <t>test mi</t>
+  </si>
+  <si>
+    <t>evet komik</t>
+  </si>
+  <si>
+    <t>prens mi</t>
+  </si>
+  <si>
+    <t>ne şeker</t>
+  </si>
+  <si>
+    <t>adres ne</t>
+  </si>
+  <si>
+    <t>planımız ne</t>
+  </si>
+  <si>
+    <t>taksi mi</t>
+  </si>
+  <si>
+    <t>bazen evet</t>
+  </si>
+  <si>
+    <t>ne testi</t>
+  </si>
+  <si>
+    <t>alo evet</t>
+  </si>
+  <si>
+    <t>evet süper</t>
+  </si>
+  <si>
+    <t>şantaj mı</t>
+  </si>
+  <si>
+    <t>evet mösyö</t>
+  </si>
+  <si>
+    <t>ne filmi</t>
+  </si>
+  <si>
+    <t>numarası ne</t>
+  </si>
+  <si>
+    <t>fotoğraf mı</t>
+  </si>
+  <si>
+    <t>bir mesaj</t>
+  </si>
+  <si>
+    <t>bir telefon</t>
+  </si>
+  <si>
+    <t>evet profesör</t>
+  </si>
+  <si>
+    <t>telefonum yok</t>
+  </si>
+  <si>
+    <t>okulda mı</t>
+  </si>
+  <si>
+    <t>bir sürpriz</t>
+  </si>
+  <si>
+    <t>çikolata mı</t>
+  </si>
+  <si>
+    <t>çok klas</t>
+  </si>
+  <si>
+    <t>bisiklet mi</t>
+  </si>
+  <si>
+    <t>planım yok</t>
+  </si>
+  <si>
+    <t>bir fare</t>
+  </si>
+  <si>
+    <t>dinamit mi</t>
+  </si>
+  <si>
+    <t>üniversite mi</t>
+  </si>
+  <si>
+    <t>şart mı</t>
+  </si>
+  <si>
+    <t>bir düzine</t>
+  </si>
+  <si>
+    <t>çok trajik</t>
+  </si>
+  <si>
+    <t>müzik yok</t>
+  </si>
+  <si>
+    <t>bir bomba</t>
+  </si>
+  <si>
+    <t>harita mı</t>
+  </si>
+  <si>
+    <t>kamera mı</t>
+  </si>
+  <si>
+    <t>bir klasik</t>
+  </si>
+  <si>
+    <t>şampanya mı</t>
+  </si>
+  <si>
+    <t>mesaj yok</t>
+  </si>
+  <si>
+    <t>listede yok</t>
+  </si>
+  <si>
+    <t>fazla yok</t>
+  </si>
+  <si>
+    <t>bir film</t>
+  </si>
+  <si>
+    <t>çok orijinal</t>
+  </si>
+  <si>
+    <t>fransız mı</t>
+  </si>
+  <si>
+    <t>evet komutan</t>
+  </si>
+  <si>
+    <t>fazla mı</t>
+  </si>
+  <si>
+    <t>bir sosis</t>
+  </si>
+  <si>
+    <t>bir makine</t>
+  </si>
+  <si>
+    <t>mesajınız yok</t>
+  </si>
+  <si>
+    <t>alkol yok</t>
+  </si>
+  <si>
+    <t>şansımız yok</t>
+  </si>
+  <si>
+    <t>çok bariz</t>
+  </si>
+  <si>
+    <t>bando yok</t>
+  </si>
+  <si>
+    <t>çok modern</t>
+  </si>
+  <si>
+    <t>çok tipik</t>
+  </si>
+  <si>
+    <t>evet komiser</t>
+  </si>
+  <si>
+    <t>çok profesyonelce</t>
+  </si>
+  <si>
+    <t>ben patronum</t>
+  </si>
+  <si>
+    <t>bu doktor</t>
+  </si>
+  <si>
+    <t>ben bekarım</t>
+  </si>
+  <si>
+    <t>hayır şerif</t>
+  </si>
+  <si>
+    <t>adres bu</t>
+  </si>
+  <si>
+    <t>ben doktor</t>
+  </si>
+  <si>
+    <t>astımım var</t>
+  </si>
+  <si>
+    <t>bazen ben</t>
+  </si>
+  <si>
+    <t>hayır bebek</t>
+  </si>
+  <si>
+    <t>doktor bu</t>
+  </si>
+  <si>
+    <t>parti var</t>
+  </si>
+  <si>
+    <t>numara bu</t>
+  </si>
+  <si>
+    <t>ben prensesim</t>
+  </si>
+  <si>
+    <t>bu bebek</t>
+  </si>
+  <si>
+    <t>hayır pardon</t>
+  </si>
+  <si>
+    <t>potansiyeli var</t>
+  </si>
+  <si>
+    <t>biletim var</t>
+  </si>
+  <si>
+    <t>bebek var</t>
+  </si>
+  <si>
+    <t>fark var</t>
+  </si>
+  <si>
+    <t>ben barbara</t>
+  </si>
+  <si>
+    <t>problemimiz var</t>
+  </si>
+  <si>
+    <t>şansımız var</t>
+  </si>
+  <si>
+    <t>bu şart</t>
+  </si>
+  <si>
+    <t>şansın var</t>
+  </si>
+  <si>
+    <t>bu gaz</t>
+  </si>
+  <si>
+    <t>alerjisi var</t>
+  </si>
+  <si>
+    <t>ben şefim</t>
+  </si>
+  <si>
+    <t>ben morgan</t>
+  </si>
+  <si>
+    <t>polis bu</t>
+  </si>
+  <si>
+    <t>hayır morgan</t>
+  </si>
+  <si>
+    <t>bu fantastik</t>
+  </si>
+  <si>
+    <t>bu politika</t>
+  </si>
+  <si>
+    <t>ben şoförüm</t>
+  </si>
+  <si>
+    <t>hayır aksine</t>
+  </si>
+  <si>
+    <t>kanserim ben</t>
+  </si>
+  <si>
+    <t>numara değil</t>
+  </si>
+  <si>
+    <t>hayır duydum</t>
+  </si>
+  <si>
+    <t>hayır defol</t>
+  </si>
+  <si>
+    <t>sürpriz değil</t>
+  </si>
+  <si>
+    <t>doktor değil</t>
+  </si>
+  <si>
+    <t>hayır mersi</t>
+  </si>
+  <si>
+    <t>bebek değil</t>
+  </si>
+  <si>
+    <t>bazen değil</t>
+  </si>
+  <si>
+    <t>hayır şekerim</t>
+  </si>
+  <si>
+    <t>ofisinde değil</t>
+  </si>
+  <si>
+    <t>randevu gibi</t>
+  </si>
+  <si>
+    <t>telefonda değil</t>
+  </si>
+  <si>
+    <t>ray hayır</t>
+  </si>
+  <si>
+    <t>müzik gibi</t>
+  </si>
+  <si>
+    <t>basit değil</t>
+  </si>
+  <si>
+    <t>o telefonda</t>
+  </si>
+  <si>
+    <t>tümör değil</t>
+  </si>
+  <si>
+    <t>aktif değil</t>
+  </si>
+  <si>
+    <t>fare gibi</t>
+  </si>
+  <si>
+    <t>o psikopat</t>
+  </si>
+  <si>
+    <t>ve doktor</t>
+  </si>
+  <si>
+    <t>o şoför</t>
+  </si>
+  <si>
+    <t>o duşta</t>
+  </si>
+  <si>
+    <t>o maske</t>
+  </si>
+  <si>
+    <t>ama general</t>
+  </si>
+  <si>
+    <t>ama amatörler</t>
+  </si>
+  <si>
+    <t>ve banyo</t>
+  </si>
+  <si>
+    <t>televizyondaki gibi</t>
+  </si>
+  <si>
+    <t>ama madam</t>
+  </si>
+  <si>
+    <t>lastik gibi</t>
+  </si>
+  <si>
+    <t>duydum ama</t>
+  </si>
+  <si>
+    <t>o şerif</t>
+  </si>
+  <si>
+    <t>gene o</t>
+  </si>
+  <si>
+    <t>labirent gibi</t>
+  </si>
+  <si>
+    <t>ama komutanım</t>
+  </si>
+  <si>
+    <t>ama basit</t>
+  </si>
+  <si>
+    <t>profesyonel gibi</t>
+  </si>
+  <si>
+    <t>süpermen gibi</t>
+  </si>
+  <si>
+    <t>normal gibi</t>
+  </si>
+  <si>
+    <t>ve polis</t>
+  </si>
+  <si>
+    <t>o şokta</t>
+  </si>
+  <si>
+    <t>ve şampanya</t>
+  </si>
+  <si>
+    <t>o patron</t>
+  </si>
+  <si>
+    <t>o alman</t>
+  </si>
+  <si>
+    <t>ve basket</t>
+  </si>
+  <si>
+    <t>prens için</t>
+  </si>
+  <si>
+    <t>film için</t>
+  </si>
+  <si>
+    <t>onur için</t>
+  </si>
+  <si>
+    <t>bisiklet için</t>
+  </si>
+  <si>
+    <t>ve şef</t>
+  </si>
+  <si>
+    <t>ve ray</t>
+  </si>
+  <si>
+    <t>ama sürpriz</t>
+  </si>
+  <si>
+    <t>egzersiz için</t>
+  </si>
+  <si>
+    <t>virüs gibi</t>
+  </si>
+  <si>
+    <t>ve dans</t>
+  </si>
+  <si>
+    <t>seni psikopat</t>
+  </si>
+  <si>
+    <t>ama polis</t>
+  </si>
+  <si>
+    <t>otobüs için</t>
+  </si>
+  <si>
+    <t>patronum için</t>
+  </si>
+  <si>
+    <t>komikti ama</t>
+  </si>
+  <si>
+    <t>polisler için</t>
+  </si>
+  <si>
+    <t>ve karneler</t>
+  </si>
+  <si>
+    <t>ve defol</t>
+  </si>
+  <si>
+    <t>test için</t>
+  </si>
+  <si>
+    <t>seni fare</t>
+  </si>
+  <si>
+    <t>seni barbar</t>
+  </si>
+  <si>
+    <t>salata için</t>
+  </si>
+  <si>
+    <t>defol seni</t>
+  </si>
+  <si>
+    <t>ama sahne</t>
+  </si>
+  <si>
+    <t>sen ajansın</t>
+  </si>
+  <si>
+    <t>bebek seni</t>
+  </si>
+  <si>
+    <t>bar sen</t>
+  </si>
+  <si>
+    <t>seni egoist</t>
+  </si>
+  <si>
+    <t>şey duydum</t>
+  </si>
+  <si>
+    <t>ceketini de</t>
+  </si>
+  <si>
+    <t>seni ispiyoncu</t>
+  </si>
+  <si>
+    <t>seni kasap</t>
+  </si>
+  <si>
+    <t>şey şef</t>
+  </si>
+  <si>
+    <t>şey disket</t>
+  </si>
+  <si>
+    <t>embesil seni</t>
+  </si>
+  <si>
+    <t>daha komik</t>
+  </si>
+  <si>
+    <t>sempatik şey</t>
+  </si>
+  <si>
+    <t>genelde seni</t>
+  </si>
+  <si>
+    <t>sen puding</t>
+  </si>
+  <si>
+    <t>patates de</t>
+  </si>
+  <si>
+    <t>motor da</t>
+  </si>
+  <si>
+    <t>polis de</t>
+  </si>
+  <si>
+    <t>aksi şey</t>
+  </si>
+  <si>
+    <t>şey listesi</t>
+  </si>
+  <si>
+    <t>bisikleti sen</t>
+  </si>
+  <si>
+    <t>pardon şey</t>
+  </si>
+  <si>
+    <t>pasaportumu da</t>
+  </si>
+  <si>
+    <t>doktor da</t>
+  </si>
+  <si>
+    <t>polise de</t>
+  </si>
+  <si>
+    <t>patatesler de</t>
+  </si>
+  <si>
+    <t>rozetin de</t>
+  </si>
+  <si>
+    <t>manyak şey</t>
+  </si>
+  <si>
+    <t>şanslı da</t>
+  </si>
+  <si>
+    <t>şey genelde</t>
+  </si>
+  <si>
+    <t>sen bisikletli</t>
+  </si>
+  <si>
+    <t>sen amiral</t>
+  </si>
+  <si>
+    <t>şeker de</t>
+  </si>
+  <si>
+    <t>antibiyotik de</t>
+  </si>
+  <si>
+    <t>sen duydun</t>
+  </si>
+  <si>
+    <t>profesör sen</t>
+  </si>
+  <si>
+    <t>kansere de</t>
+  </si>
+  <si>
+    <t>pilotlar da</t>
+  </si>
+  <si>
+    <t>adresi de</t>
+  </si>
+  <si>
+    <t>şey şerif</t>
+  </si>
+  <si>
+    <t>avukatım da</t>
+  </si>
+  <si>
+    <t>daha konforlu</t>
+  </si>
+  <si>
+    <t>rolü sen</t>
+  </si>
+  <si>
+    <t>fotoğrafı da</t>
+  </si>
+  <si>
+    <t>şefim sen</t>
+  </si>
+  <si>
+    <t>daha klas</t>
+  </si>
+  <si>
+    <t>pantolonumu da</t>
+  </si>
+  <si>
+    <t>daha normal</t>
+  </si>
+  <si>
+    <t>daha seri</t>
+  </si>
+  <si>
+    <t>duydum da</t>
+  </si>
+  <si>
+    <t>sendikalar daha</t>
+  </si>
+  <si>
+    <t>televizyonu da</t>
+  </si>
+  <si>
+    <t>çarp beni</t>
+  </si>
+  <si>
+    <t>onu tart</t>
+  </si>
+  <si>
+    <t>bana spesiyal</t>
+  </si>
+  <si>
+    <t>tart onu</t>
+  </si>
+  <si>
+    <t>gazla beni</t>
+  </si>
+  <si>
+    <t>bana hamburger</t>
+  </si>
+  <si>
+    <t>bana vanilyalı</t>
+  </si>
+  <si>
+    <t>onu kurdum</t>
+  </si>
+  <si>
+    <t>doktor bana</t>
+  </si>
+  <si>
+    <t>daha şık</t>
+  </si>
+  <si>
+    <t>beni ispiyonladı</t>
+  </si>
+  <si>
+    <t>mesajın beni</t>
+  </si>
+  <si>
+    <t>beni duymuş</t>
+  </si>
+  <si>
+    <t>daha agresif</t>
+  </si>
+  <si>
+    <t>daha amerikan</t>
+  </si>
+  <si>
+    <t>daha basma</t>
+  </si>
+  <si>
+    <t>drama beni</t>
+  </si>
+  <si>
+    <t>beni bastın</t>
+  </si>
+  <si>
+    <t>bazen beni</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,7 +1620,7 @@
         <v>156</v>
       </c>
       <c r="F2">
-        <v>13097</v>
+        <v>467</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -1739,7 +1643,7 @@
         <v>157</v>
       </c>
       <c r="F3">
-        <v>4669</v>
+        <v>401</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -1762,7 +1666,7 @@
         <v>158</v>
       </c>
       <c r="F4">
-        <v>3541</v>
+        <v>382</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -1785,7 +1689,7 @@
         <v>159</v>
       </c>
       <c r="F5">
-        <v>3335</v>
+        <v>380</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -1808,7 +1712,7 @@
         <v>160</v>
       </c>
       <c r="F6">
-        <v>3278</v>
+        <v>370</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -1831,7 +1735,7 @@
         <v>161</v>
       </c>
       <c r="F7">
-        <v>3023</v>
+        <v>364</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -1854,7 +1758,7 @@
         <v>162</v>
       </c>
       <c r="F8">
-        <v>2526</v>
+        <v>349</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -1877,7 +1781,7 @@
         <v>163</v>
       </c>
       <c r="F9">
-        <v>2522</v>
+        <v>348</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -1900,7 +1804,7 @@
         <v>164</v>
       </c>
       <c r="F10">
-        <v>1830</v>
+        <v>340</v>
       </c>
       <c r="G10">
         <v>19</v>
@@ -1923,7 +1827,7 @@
         <v>165</v>
       </c>
       <c r="F11">
-        <v>1785</v>
+        <v>332</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -1946,7 +1850,7 @@
         <v>166</v>
       </c>
       <c r="F12">
-        <v>1756</v>
+        <v>320</v>
       </c>
       <c r="G12">
         <v>20</v>
@@ -1969,7 +1873,7 @@
         <v>167</v>
       </c>
       <c r="F13">
-        <v>1738</v>
+        <v>316</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -1992,7 +1896,7 @@
         <v>168</v>
       </c>
       <c r="F14">
-        <v>1703</v>
+        <v>310</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -2015,7 +1919,7 @@
         <v>169</v>
       </c>
       <c r="F15">
-        <v>1678</v>
+        <v>277</v>
       </c>
       <c r="G15">
         <v>16</v>
@@ -2038,7 +1942,7 @@
         <v>170</v>
       </c>
       <c r="F16">
-        <v>1476</v>
+        <v>267</v>
       </c>
       <c r="G16">
         <v>20</v>
@@ -2061,7 +1965,7 @@
         <v>171</v>
       </c>
       <c r="F17">
-        <v>1473</v>
+        <v>260</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -2084,7 +1988,7 @@
         <v>172</v>
       </c>
       <c r="F18">
-        <v>1329</v>
+        <v>259</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -2107,7 +2011,7 @@
         <v>173</v>
       </c>
       <c r="F19">
-        <v>1319</v>
+        <v>259</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -2130,7 +2034,7 @@
         <v>174</v>
       </c>
       <c r="F20">
-        <v>1272</v>
+        <v>254</v>
       </c>
       <c r="G20">
         <v>19</v>
@@ -2153,7 +2057,7 @@
         <v>175</v>
       </c>
       <c r="F21">
-        <v>1246</v>
+        <v>238</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -2176,10 +2080,10 @@
         <v>176</v>
       </c>
       <c r="F22">
-        <v>1185</v>
+        <v>236</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2199,10 +2103,10 @@
         <v>177</v>
       </c>
       <c r="F23">
-        <v>1043</v>
+        <v>235</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2222,7 +2126,7 @@
         <v>178</v>
       </c>
       <c r="F24">
-        <v>994</v>
+        <v>234</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -2245,10 +2149,10 @@
         <v>179</v>
       </c>
       <c r="F25">
-        <v>980</v>
+        <v>228</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2268,7 +2172,7 @@
         <v>180</v>
       </c>
       <c r="F26">
-        <v>954</v>
+        <v>217</v>
       </c>
       <c r="G26">
         <v>15</v>
@@ -2291,10 +2195,10 @@
         <v>181</v>
       </c>
       <c r="F27">
-        <v>920</v>
+        <v>214</v>
       </c>
       <c r="G27">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2314,10 +2218,10 @@
         <v>182</v>
       </c>
       <c r="F28">
-        <v>916</v>
+        <v>214</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2337,7 +2241,7 @@
         <v>183</v>
       </c>
       <c r="F29">
-        <v>861</v>
+        <v>212</v>
       </c>
       <c r="G29">
         <v>16</v>
@@ -2354,7 +2258,7 @@
         <v>184</v>
       </c>
       <c r="F30">
-        <v>839</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2368,7 +2272,7 @@
         <v>185</v>
       </c>
       <c r="F31">
-        <v>835</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2382,7 +2286,7 @@
         <v>186</v>
       </c>
       <c r="F32">
-        <v>828</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -2396,7 +2300,7 @@
         <v>187</v>
       </c>
       <c r="F33">
-        <v>822</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="3:6">
@@ -2410,7 +2314,7 @@
         <v>188</v>
       </c>
       <c r="F34">
-        <v>813</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -2424,7 +2328,7 @@
         <v>189</v>
       </c>
       <c r="F35">
-        <v>776</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -2438,7 +2342,7 @@
         <v>190</v>
       </c>
       <c r="F36">
-        <v>764</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -2452,7 +2356,7 @@
         <v>191</v>
       </c>
       <c r="F37">
-        <v>751</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -2466,7 +2370,7 @@
         <v>192</v>
       </c>
       <c r="F38">
-        <v>746</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="3:6">
@@ -2480,7 +2384,7 @@
         <v>193</v>
       </c>
       <c r="F39">
-        <v>742</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -2494,7 +2398,7 @@
         <v>194</v>
       </c>
       <c r="F40">
-        <v>718</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="3:6">
@@ -2508,7 +2412,7 @@
         <v>195</v>
       </c>
       <c r="F41">
-        <v>685</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="3:6">
@@ -2522,7 +2426,7 @@
         <v>196</v>
       </c>
       <c r="F42">
-        <v>666</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="3:6">
@@ -2536,7 +2440,7 @@
         <v>197</v>
       </c>
       <c r="F43">
-        <v>664</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="3:6">
@@ -2550,7 +2454,7 @@
         <v>198</v>
       </c>
       <c r="F44">
-        <v>587</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="3:6">
@@ -2564,7 +2468,7 @@
         <v>199</v>
       </c>
       <c r="F45">
-        <v>579</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="3:6">
@@ -2578,7 +2482,7 @@
         <v>200</v>
       </c>
       <c r="F46">
-        <v>574</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -2592,7 +2496,7 @@
         <v>201</v>
       </c>
       <c r="F47">
-        <v>565</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="3:6">
@@ -2606,7 +2510,7 @@
         <v>202</v>
       </c>
       <c r="F48">
-        <v>556</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="3:6">
@@ -2620,7 +2524,7 @@
         <v>203</v>
       </c>
       <c r="F49">
-        <v>541</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="3:6">
@@ -2634,7 +2538,7 @@
         <v>204</v>
       </c>
       <c r="F50">
-        <v>540</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="3:6">
@@ -2648,7 +2552,7 @@
         <v>205</v>
       </c>
       <c r="F51">
-        <v>523</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="3:6">
@@ -2662,7 +2566,7 @@
         <v>206</v>
       </c>
       <c r="F52">
-        <v>512</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="3:6">
@@ -2676,7 +2580,7 @@
         <v>207</v>
       </c>
       <c r="F53">
-        <v>510</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="3:6">
@@ -2690,7 +2594,7 @@
         <v>208</v>
       </c>
       <c r="F54">
-        <v>510</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="3:6">
@@ -2704,7 +2608,7 @@
         <v>209</v>
       </c>
       <c r="F55">
-        <v>509</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="3:6">
@@ -2718,7 +2622,7 @@
         <v>210</v>
       </c>
       <c r="F56">
-        <v>505</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="3:6">
@@ -2732,7 +2636,7 @@
         <v>211</v>
       </c>
       <c r="F57">
-        <v>497</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="3:6">
@@ -2746,7 +2650,7 @@
         <v>212</v>
       </c>
       <c r="F58">
-        <v>494</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="3:6">
@@ -2760,7 +2664,7 @@
         <v>213</v>
       </c>
       <c r="F59">
-        <v>486</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="3:6">
@@ -2774,7 +2678,7 @@
         <v>214</v>
       </c>
       <c r="F60">
-        <v>482</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="3:6">
@@ -2788,7 +2692,7 @@
         <v>215</v>
       </c>
       <c r="F61">
-        <v>481</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="3:6">
@@ -2802,7 +2706,7 @@
         <v>216</v>
       </c>
       <c r="F62">
-        <v>480</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="3:6">
@@ -2816,7 +2720,7 @@
         <v>217</v>
       </c>
       <c r="F63">
-        <v>463</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="3:6">
@@ -2830,7 +2734,7 @@
         <v>218</v>
       </c>
       <c r="F64">
-        <v>456</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="3:6">
@@ -2844,7 +2748,7 @@
         <v>219</v>
       </c>
       <c r="F65">
-        <v>417</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="3:6">
@@ -2858,7 +2762,7 @@
         <v>220</v>
       </c>
       <c r="F66">
-        <v>413</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="3:6">
@@ -2872,7 +2776,7 @@
         <v>221</v>
       </c>
       <c r="F67">
-        <v>410</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="3:6">
@@ -2886,7 +2790,7 @@
         <v>222</v>
       </c>
       <c r="F68">
-        <v>405</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="3:6">
@@ -2900,7 +2804,7 @@
         <v>223</v>
       </c>
       <c r="F69">
-        <v>405</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="3:6">
@@ -2914,7 +2818,7 @@
         <v>224</v>
       </c>
       <c r="F70">
-        <v>402</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="3:6">
@@ -2928,7 +2832,7 @@
         <v>225</v>
       </c>
       <c r="F71">
-        <v>399</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="3:6">
@@ -2942,7 +2846,7 @@
         <v>226</v>
       </c>
       <c r="F72">
-        <v>399</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="3:6">
@@ -2956,7 +2860,7 @@
         <v>227</v>
       </c>
       <c r="F73">
-        <v>391</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="3:6">
@@ -2970,7 +2874,7 @@
         <v>228</v>
       </c>
       <c r="F74">
-        <v>382</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="3:6">
@@ -2984,7 +2888,7 @@
         <v>229</v>
       </c>
       <c r="F75">
-        <v>370</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="3:6">
@@ -2998,7 +2902,7 @@
         <v>230</v>
       </c>
       <c r="F76">
-        <v>364</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="3:6">
@@ -3012,7 +2916,7 @@
         <v>231</v>
       </c>
       <c r="F77">
-        <v>361</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="3:6">
@@ -3026,7 +2930,7 @@
         <v>232</v>
       </c>
       <c r="F78">
-        <v>360</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="3:6">
@@ -3040,7 +2944,7 @@
         <v>233</v>
       </c>
       <c r="F79">
-        <v>343</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="3:6">
@@ -3054,7 +2958,7 @@
         <v>234</v>
       </c>
       <c r="F80">
-        <v>337</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="3:6">
@@ -3068,7 +2972,7 @@
         <v>235</v>
       </c>
       <c r="F81">
-        <v>326</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="3:6">
@@ -3082,7 +2986,7 @@
         <v>236</v>
       </c>
       <c r="F82">
-        <v>323</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="3:6">
@@ -3096,7 +3000,7 @@
         <v>237</v>
       </c>
       <c r="F83">
-        <v>321</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="3:6">
@@ -3110,7 +3014,7 @@
         <v>238</v>
       </c>
       <c r="F84">
-        <v>305</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="3:6">
@@ -3124,7 +3028,7 @@
         <v>239</v>
       </c>
       <c r="F85">
-        <v>304</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="3:6">
@@ -3138,7 +3042,7 @@
         <v>240</v>
       </c>
       <c r="F86">
-        <v>293</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="3:6">
@@ -3152,7 +3056,7 @@
         <v>241</v>
       </c>
       <c r="F87">
-        <v>292</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="3:6">
@@ -3166,7 +3070,7 @@
         <v>242</v>
       </c>
       <c r="F88">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="3:6">
@@ -3180,7 +3084,7 @@
         <v>243</v>
       </c>
       <c r="F89">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="3:6">
@@ -3194,7 +3098,7 @@
         <v>244</v>
       </c>
       <c r="F90">
-        <v>283</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="3:6">
@@ -3208,7 +3112,7 @@
         <v>245</v>
       </c>
       <c r="F91">
-        <v>280</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="3:6">
@@ -3222,7 +3126,7 @@
         <v>246</v>
       </c>
       <c r="F92">
-        <v>279</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="3:6">
@@ -3236,7 +3140,7 @@
         <v>247</v>
       </c>
       <c r="F93">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="3:6">
@@ -3250,7 +3154,7 @@
         <v>248</v>
       </c>
       <c r="F94">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="3:6">
@@ -3264,7 +3168,7 @@
         <v>249</v>
       </c>
       <c r="F95">
-        <v>264</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="3:6">
@@ -3278,7 +3182,7 @@
         <v>250</v>
       </c>
       <c r="F96">
-        <v>251</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="3:6">
@@ -3292,7 +3196,7 @@
         <v>251</v>
       </c>
       <c r="F97">
-        <v>247</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="3:6">
@@ -3306,7 +3210,7 @@
         <v>252</v>
       </c>
       <c r="F98">
-        <v>247</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="3:6">
@@ -3320,7 +3224,7 @@
         <v>253</v>
       </c>
       <c r="F99">
-        <v>242</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="3:6">
@@ -3334,7 +3238,7 @@
         <v>254</v>
       </c>
       <c r="F100">
-        <v>239</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="3:6">
@@ -3348,7 +3252,7 @@
         <v>255</v>
       </c>
       <c r="F101">
-        <v>239</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="3:6">
@@ -3362,7 +3266,7 @@
         <v>256</v>
       </c>
       <c r="F102">
-        <v>238</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="3:6">
@@ -3376,7 +3280,7 @@
         <v>257</v>
       </c>
       <c r="F103">
-        <v>236</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="3:6">
@@ -3390,7 +3294,7 @@
         <v>258</v>
       </c>
       <c r="F104">
-        <v>233</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="3:6">
@@ -3404,7 +3308,7 @@
         <v>259</v>
       </c>
       <c r="F105">
-        <v>230</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="3:6">
@@ -3418,7 +3322,7 @@
         <v>260</v>
       </c>
       <c r="F106">
-        <v>220</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="3:6">
@@ -3432,7 +3336,7 @@
         <v>261</v>
       </c>
       <c r="F107">
-        <v>215</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="3:6">
@@ -3446,7 +3350,7 @@
         <v>262</v>
       </c>
       <c r="F108">
-        <v>205</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="3:6">
@@ -3460,7 +3364,7 @@
         <v>263</v>
       </c>
       <c r="F109">
-        <v>203</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="3:6">
@@ -3474,7 +3378,7 @@
         <v>264</v>
       </c>
       <c r="F110">
-        <v>200</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="3:6">
@@ -3488,7 +3392,7 @@
         <v>265</v>
       </c>
       <c r="F111">
-        <v>198</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="3:6">
@@ -3502,7 +3406,7 @@
         <v>266</v>
       </c>
       <c r="F112">
-        <v>195</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="3:6">
@@ -3516,7 +3420,7 @@
         <v>267</v>
       </c>
       <c r="F113">
-        <v>195</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="3:6">
@@ -3530,7 +3434,7 @@
         <v>268</v>
       </c>
       <c r="F114">
-        <v>187</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="3:6">
@@ -3544,7 +3448,7 @@
         <v>269</v>
       </c>
       <c r="F115">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="3:6">
@@ -3558,7 +3462,7 @@
         <v>270</v>
       </c>
       <c r="F116">
-        <v>176</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="3:6">
@@ -3572,7 +3476,7 @@
         <v>271</v>
       </c>
       <c r="F117">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="3:6">
@@ -3586,7 +3490,7 @@
         <v>272</v>
       </c>
       <c r="F118">
-        <v>174</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="3:6">
@@ -3600,7 +3504,7 @@
         <v>273</v>
       </c>
       <c r="F119">
-        <v>173</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="3:6">
@@ -3614,7 +3518,7 @@
         <v>274</v>
       </c>
       <c r="F120">
-        <v>171</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="3:6">
@@ -3628,7 +3532,7 @@
         <v>275</v>
       </c>
       <c r="F121">
-        <v>166</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="3:6">
@@ -3642,7 +3546,7 @@
         <v>276</v>
       </c>
       <c r="F122">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="3:6">
@@ -3650,7 +3554,7 @@
         <v>277</v>
       </c>
       <c r="F123">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="3:6">
@@ -3658,7 +3562,7 @@
         <v>278</v>
       </c>
       <c r="F124">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="3:6">
@@ -3666,7 +3570,7 @@
         <v>279</v>
       </c>
       <c r="F125">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="3:6">
@@ -3674,7 +3578,7 @@
         <v>280</v>
       </c>
       <c r="F126">
-        <v>148</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="3:6">
@@ -3682,7 +3586,7 @@
         <v>281</v>
       </c>
       <c r="F127">
-        <v>146</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="3:6">
@@ -3690,7 +3594,7 @@
         <v>282</v>
       </c>
       <c r="F128">
-        <v>139</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="5:6">
@@ -3698,7 +3602,7 @@
         <v>283</v>
       </c>
       <c r="F129">
-        <v>133</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="5:6">
@@ -3706,7 +3610,7 @@
         <v>284</v>
       </c>
       <c r="F130">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="5:6">
@@ -3714,7 +3618,7 @@
         <v>285</v>
       </c>
       <c r="F131">
-        <v>122</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="5:6">
@@ -3722,7 +3626,7 @@
         <v>286</v>
       </c>
       <c r="F132">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="5:6">
@@ -3730,7 +3634,7 @@
         <v>287</v>
       </c>
       <c r="F133">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="5:6">
@@ -3738,7 +3642,7 @@
         <v>288</v>
       </c>
       <c r="F134">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="5:6">
@@ -3746,7 +3650,7 @@
         <v>289</v>
       </c>
       <c r="F135">
-        <v>114</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="5:6">
@@ -3754,7 +3658,7 @@
         <v>290</v>
       </c>
       <c r="F136">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="5:6">
@@ -3762,7 +3666,7 @@
         <v>291</v>
       </c>
       <c r="F137">
-        <v>113</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="5:6">
@@ -3770,7 +3674,7 @@
         <v>292</v>
       </c>
       <c r="F138">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="5:6">
@@ -3778,7 +3682,7 @@
         <v>293</v>
       </c>
       <c r="F139">
-        <v>109</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="5:6">
@@ -3786,7 +3690,7 @@
         <v>294</v>
       </c>
       <c r="F140">
-        <v>109</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="5:6">
@@ -3794,7 +3698,7 @@
         <v>295</v>
       </c>
       <c r="F141">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="5:6">
@@ -3802,7 +3706,7 @@
         <v>296</v>
       </c>
       <c r="F142">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="5:6">
@@ -3810,7 +3714,7 @@
         <v>297</v>
       </c>
       <c r="F143">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="5:6">
@@ -3818,7 +3722,7 @@
         <v>298</v>
       </c>
       <c r="F144">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="5:6">
@@ -3826,7 +3730,7 @@
         <v>299</v>
       </c>
       <c r="F145">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="5:6">
@@ -3834,7 +3738,7 @@
         <v>300</v>
       </c>
       <c r="F146">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="5:6">
@@ -3842,7 +3746,7 @@
         <v>301</v>
       </c>
       <c r="F147">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="5:6">
@@ -3850,7 +3754,7 @@
         <v>302</v>
       </c>
       <c r="F148">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="5:6">
@@ -3858,7 +3762,7 @@
         <v>303</v>
       </c>
       <c r="F149">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="5:6">
@@ -3866,7 +3770,7 @@
         <v>304</v>
       </c>
       <c r="F150">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="5:6">
@@ -3874,7 +3778,7 @@
         <v>305</v>
       </c>
       <c r="F151">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="5:6">
@@ -3882,7 +3786,7 @@
         <v>306</v>
       </c>
       <c r="F152">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="5:6">
@@ -3890,7 +3794,7 @@
         <v>307</v>
       </c>
       <c r="F153">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="5:6">
@@ -3898,7 +3802,7 @@
         <v>308</v>
       </c>
       <c r="F154">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="5:6">
@@ -3906,7 +3810,7 @@
         <v>309</v>
       </c>
       <c r="F155">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="5:6">
@@ -3914,7 +3818,7 @@
         <v>310</v>
       </c>
       <c r="F156">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="5:6">
@@ -3922,7 +3826,7 @@
         <v>311</v>
       </c>
       <c r="F157">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="5:6">
@@ -3930,7 +3834,7 @@
         <v>312</v>
       </c>
       <c r="F158">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="5:6">
@@ -3938,7 +3842,7 @@
         <v>313</v>
       </c>
       <c r="F159">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="5:6">
@@ -3946,7 +3850,7 @@
         <v>314</v>
       </c>
       <c r="F160">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="5:6">
@@ -3954,7 +3858,7 @@
         <v>315</v>
       </c>
       <c r="F161">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="5:6">
@@ -3962,7 +3866,7 @@
         <v>316</v>
       </c>
       <c r="F162">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="5:6">
@@ -3970,7 +3874,7 @@
         <v>317</v>
       </c>
       <c r="F163">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="5:6">
@@ -3978,7 +3882,7 @@
         <v>318</v>
       </c>
       <c r="F164">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="5:6">
@@ -3986,7 +3890,7 @@
         <v>319</v>
       </c>
       <c r="F165">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="5:6">
@@ -3994,7 +3898,7 @@
         <v>320</v>
       </c>
       <c r="F166">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="5:6">
@@ -4002,7 +3906,7 @@
         <v>321</v>
       </c>
       <c r="F167">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="5:6">
@@ -4010,7 +3914,7 @@
         <v>322</v>
       </c>
       <c r="F168">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="5:6">
@@ -4018,7 +3922,7 @@
         <v>323</v>
       </c>
       <c r="F169">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="5:6">
@@ -4026,7 +3930,7 @@
         <v>324</v>
       </c>
       <c r="F170">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="5:6">
@@ -4034,7 +3938,7 @@
         <v>325</v>
       </c>
       <c r="F171">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="5:6">
@@ -4042,7 +3946,7 @@
         <v>326</v>
       </c>
       <c r="F172">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="5:6">
@@ -4050,7 +3954,7 @@
         <v>327</v>
       </c>
       <c r="F173">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="5:6">
@@ -4058,7 +3962,7 @@
         <v>328</v>
       </c>
       <c r="F174">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="5:6">
@@ -4066,7 +3970,7 @@
         <v>329</v>
       </c>
       <c r="F175">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="5:6">
@@ -4074,7 +3978,7 @@
         <v>330</v>
       </c>
       <c r="F176">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="5:6">
@@ -4082,7 +3986,7 @@
         <v>331</v>
       </c>
       <c r="F177">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="5:6">
@@ -4090,7 +3994,7 @@
         <v>332</v>
       </c>
       <c r="F178">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="5:6">
@@ -4098,7 +4002,7 @@
         <v>333</v>
       </c>
       <c r="F179">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="5:6">
@@ -4106,7 +4010,7 @@
         <v>334</v>
       </c>
       <c r="F180">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="5:6">
@@ -4114,7 +4018,7 @@
         <v>335</v>
       </c>
       <c r="F181">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="5:6">
@@ -4122,7 +4026,7 @@
         <v>336</v>
       </c>
       <c r="F182">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="5:6">
@@ -4130,7 +4034,7 @@
         <v>337</v>
       </c>
       <c r="F183">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="5:6">
@@ -4138,7 +4042,7 @@
         <v>338</v>
       </c>
       <c r="F184">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="5:6">
@@ -4146,7 +4050,7 @@
         <v>339</v>
       </c>
       <c r="F185">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="5:6">
@@ -4154,7 +4058,7 @@
         <v>340</v>
       </c>
       <c r="F186">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="5:6">
@@ -4162,7 +4066,7 @@
         <v>341</v>
       </c>
       <c r="F187">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="5:6">
@@ -4170,7 +4074,7 @@
         <v>342</v>
       </c>
       <c r="F188">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="5:6">
@@ -4178,7 +4082,7 @@
         <v>343</v>
       </c>
       <c r="F189">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="5:6">
@@ -4186,7 +4090,7 @@
         <v>344</v>
       </c>
       <c r="F190">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="5:6">
@@ -4194,7 +4098,7 @@
         <v>345</v>
       </c>
       <c r="F191">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="5:6">
@@ -4202,7 +4106,7 @@
         <v>346</v>
       </c>
       <c r="F192">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="5:6">
@@ -4210,7 +4114,7 @@
         <v>347</v>
       </c>
       <c r="F193">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="5:6">
@@ -4218,7 +4122,7 @@
         <v>348</v>
       </c>
       <c r="F194">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="5:6">
@@ -4226,7 +4130,7 @@
         <v>349</v>
       </c>
       <c r="F195">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="5:6">
@@ -4234,7 +4138,7 @@
         <v>350</v>
       </c>
       <c r="F196">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="5:6">
@@ -4242,7 +4146,7 @@
         <v>351</v>
       </c>
       <c r="F197">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="5:6">
@@ -4250,7 +4154,7 @@
         <v>352</v>
       </c>
       <c r="F198">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="5:6">
@@ -4258,7 +4162,7 @@
         <v>353</v>
       </c>
       <c r="F199">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="5:6">
@@ -4266,7 +4170,7 @@
         <v>354</v>
       </c>
       <c r="F200">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="5:6">
@@ -4274,7 +4178,7 @@
         <v>355</v>
       </c>
       <c r="F201">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="5:6">
@@ -4282,7 +4186,7 @@
         <v>356</v>
       </c>
       <c r="F202">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="5:6">
@@ -4290,7 +4194,7 @@
         <v>357</v>
       </c>
       <c r="F203">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="5:6">
@@ -4298,7 +4202,7 @@
         <v>358</v>
       </c>
       <c r="F204">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="5:6">
@@ -4306,7 +4210,7 @@
         <v>359</v>
       </c>
       <c r="F205">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="5:6">
@@ -4314,7 +4218,7 @@
         <v>360</v>
       </c>
       <c r="F206">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="5:6">
@@ -4322,7 +4226,7 @@
         <v>361</v>
       </c>
       <c r="F207">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="5:6">
@@ -4330,7 +4234,7 @@
         <v>362</v>
       </c>
       <c r="F208">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="5:6">
@@ -4338,7 +4242,7 @@
         <v>363</v>
       </c>
       <c r="F209">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="5:6">
@@ -4346,7 +4250,7 @@
         <v>364</v>
       </c>
       <c r="F210">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="5:6">
@@ -4354,7 +4258,7 @@
         <v>365</v>
       </c>
       <c r="F211">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="5:6">
@@ -4362,7 +4266,7 @@
         <v>366</v>
       </c>
       <c r="F212">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="5:6">
@@ -4370,7 +4274,7 @@
         <v>367</v>
       </c>
       <c r="F213">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="5:6">
@@ -4378,7 +4282,7 @@
         <v>368</v>
       </c>
       <c r="F214">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="5:6">
@@ -4386,7 +4290,7 @@
         <v>369</v>
       </c>
       <c r="F215">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="5:6">
@@ -4394,7 +4298,7 @@
         <v>370</v>
       </c>
       <c r="F216">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="5:6">
@@ -4402,7 +4306,7 @@
         <v>371</v>
       </c>
       <c r="F217">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="5:6">
@@ -4410,7 +4314,7 @@
         <v>372</v>
       </c>
       <c r="F218">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="5:6">
@@ -4418,7 +4322,7 @@
         <v>373</v>
       </c>
       <c r="F219">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="5:6">
@@ -4426,7 +4330,7 @@
         <v>374</v>
       </c>
       <c r="F220">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="5:6">
@@ -4434,7 +4338,7 @@
         <v>375</v>
       </c>
       <c r="F221">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="5:6">
@@ -4442,7 +4346,7 @@
         <v>376</v>
       </c>
       <c r="F222">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="5:6">
@@ -4450,7 +4354,7 @@
         <v>377</v>
       </c>
       <c r="F223">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="5:6">
@@ -4458,7 +4362,7 @@
         <v>378</v>
       </c>
       <c r="F224">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="5:6">
@@ -4466,7 +4370,7 @@
         <v>379</v>
       </c>
       <c r="F225">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="5:6">
@@ -4474,7 +4378,7 @@
         <v>380</v>
       </c>
       <c r="F226">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="5:6">
@@ -4482,7 +4386,7 @@
         <v>381</v>
       </c>
       <c r="F227">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="5:6">
@@ -4490,7 +4394,7 @@
         <v>382</v>
       </c>
       <c r="F228">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="5:6">
@@ -4498,7 +4402,7 @@
         <v>383</v>
       </c>
       <c r="F229">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="5:6">
@@ -4506,7 +4410,7 @@
         <v>384</v>
       </c>
       <c r="F230">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="5:6">
@@ -4514,7 +4418,7 @@
         <v>385</v>
       </c>
       <c r="F231">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="5:6">
@@ -4522,7 +4426,7 @@
         <v>386</v>
       </c>
       <c r="F232">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="5:6">
@@ -4530,7 +4434,7 @@
         <v>387</v>
       </c>
       <c r="F233">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="5:6">
@@ -4538,7 +4442,7 @@
         <v>388</v>
       </c>
       <c r="F234">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="5:6">
@@ -4546,7 +4450,7 @@
         <v>389</v>
       </c>
       <c r="F235">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="5:6">
@@ -4554,7 +4458,7 @@
         <v>390</v>
       </c>
       <c r="F236">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="5:6">
@@ -4562,7 +4466,7 @@
         <v>391</v>
       </c>
       <c r="F237">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="5:6">
@@ -4570,7 +4474,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="5:6">
@@ -4578,7 +4482,7 @@
         <v>393</v>
       </c>
       <c r="F239">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="5:6">
@@ -4586,7 +4490,7 @@
         <v>394</v>
       </c>
       <c r="F240">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="5:6">
@@ -4594,7 +4498,7 @@
         <v>395</v>
       </c>
       <c r="F241">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="5:6">
@@ -4602,7 +4506,7 @@
         <v>396</v>
       </c>
       <c r="F242">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="5:6">
@@ -4610,7 +4514,7 @@
         <v>397</v>
       </c>
       <c r="F243">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="5:6">
@@ -4618,7 +4522,7 @@
         <v>398</v>
       </c>
       <c r="F244">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="5:6">
@@ -4626,7 +4530,7 @@
         <v>399</v>
       </c>
       <c r="F245">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="5:6">
@@ -4634,263 +4538,7 @@
         <v>400</v>
       </c>
       <c r="F246">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="5:6">
-      <c r="E247" t="s">
-        <v>401</v>
-      </c>
-      <c r="F247">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="5:6">
-      <c r="E248" t="s">
-        <v>402</v>
-      </c>
-      <c r="F248">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="5:6">
-      <c r="E249" t="s">
-        <v>403</v>
-      </c>
-      <c r="F249">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="5:6">
-      <c r="E250" t="s">
-        <v>404</v>
-      </c>
-      <c r="F250">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="5:6">
-      <c r="E251" t="s">
-        <v>405</v>
-      </c>
-      <c r="F251">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="5:6">
-      <c r="E252" t="s">
-        <v>406</v>
-      </c>
-      <c r="F252">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="5:6">
-      <c r="E253" t="s">
-        <v>407</v>
-      </c>
-      <c r="F253">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="5:6">
-      <c r="E254" t="s">
-        <v>408</v>
-      </c>
-      <c r="F254">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="255" spans="5:6">
-      <c r="E255" t="s">
-        <v>409</v>
-      </c>
-      <c r="F255">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="5:6">
-      <c r="E256" t="s">
-        <v>410</v>
-      </c>
-      <c r="F256">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="5:6">
-      <c r="E257" t="s">
-        <v>411</v>
-      </c>
-      <c r="F257">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="5:6">
-      <c r="E258" t="s">
-        <v>412</v>
-      </c>
-      <c r="F258">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="259" spans="5:6">
-      <c r="E259" t="s">
-        <v>413</v>
-      </c>
-      <c r="F259">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="5:6">
-      <c r="E260" t="s">
-        <v>414</v>
-      </c>
-      <c r="F260">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="261" spans="5:6">
-      <c r="E261" t="s">
-        <v>415</v>
-      </c>
-      <c r="F261">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" spans="5:6">
-      <c r="E262" t="s">
-        <v>416</v>
-      </c>
-      <c r="F262">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="263" spans="5:6">
-      <c r="E263" t="s">
-        <v>417</v>
-      </c>
-      <c r="F263">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="264" spans="5:6">
-      <c r="E264" t="s">
-        <v>418</v>
-      </c>
-      <c r="F264">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265" spans="5:6">
-      <c r="E265" t="s">
-        <v>419</v>
-      </c>
-      <c r="F265">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="5:6">
-      <c r="E266" t="s">
-        <v>420</v>
-      </c>
-      <c r="F266">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="5:6">
-      <c r="E267" t="s">
-        <v>421</v>
-      </c>
-      <c r="F267">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="5:6">
-      <c r="E268" t="s">
-        <v>422</v>
-      </c>
-      <c r="F268">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="5:6">
-      <c r="E269" t="s">
-        <v>423</v>
-      </c>
-      <c r="F269">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="5:6">
-      <c r="E270" t="s">
-        <v>424</v>
-      </c>
-      <c r="F270">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="5:6">
-      <c r="E271" t="s">
-        <v>425</v>
-      </c>
-      <c r="F271">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="5:6">
-      <c r="E272" t="s">
-        <v>426</v>
-      </c>
-      <c r="F272">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="5:6">
-      <c r="E273" t="s">
-        <v>427</v>
-      </c>
-      <c r="F273">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" spans="5:6">
-      <c r="E274" t="s">
-        <v>428</v>
-      </c>
-      <c r="F274">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="5:6">
-      <c r="E275" t="s">
-        <v>429</v>
-      </c>
-      <c r="F275">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="5:6">
-      <c r="E276" t="s">
-        <v>430</v>
-      </c>
-      <c r="F276">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="5:6">
-      <c r="E277" t="s">
-        <v>431</v>
-      </c>
-      <c r="F277">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="5:6">
-      <c r="E278" t="s">
-        <v>432</v>
-      </c>
-      <c r="F278">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
